--- a/Test with manipulated Dataset/ManipulatedDataset.xlsx
+++ b/Test with manipulated Dataset/ManipulatedDataset.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>RollNo.</t>
   </si>
@@ -71,6 +71,9 @@
   <si>
     <t>Operation Research</t>
   </si>
+  <si>
+    <t>Compiler Design</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -121,13 +124,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -431,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S113"/>
+  <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J94" workbookViewId="0">
-      <selection activeCell="N114" sqref="N114"/>
+    <sheetView tabSelected="1" topLeftCell="N85" workbookViewId="0">
+      <selection activeCell="T113" sqref="T113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -457,9 +474,10 @@
     <col min="17" max="17" width="20.21875" customWidth="1"/>
     <col min="18" max="18" width="57.21875" customWidth="1"/>
     <col min="19" max="19" width="32.6640625" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="37.799999999999997" customHeight="1">
+    <row r="1" spans="1:20" ht="37.799999999999997" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -514,8 +532,11 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -523,34 +544,34 @@
         <v>10900113001</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <v>9</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>8</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K2">
         <v>9</v>
       </c>
       <c r="L2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M2">
         <v>7</v>
@@ -573,8 +594,11 @@
       <c r="S2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="T2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -582,34 +606,34 @@
         <v>10900113002</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>9</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>8</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K3">
         <v>9</v>
       </c>
       <c r="L3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M3">
         <v>9</v>
@@ -632,8 +656,11 @@
       <c r="S3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="T3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -644,25 +671,25 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>9</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>8</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -691,8 +718,11 @@
       <c r="S4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="T4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -700,16 +730,16 @@
         <v>10900113004</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>9</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -718,16 +748,16 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>9</v>
       </c>
       <c r="L5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M5">
         <v>9</v>
@@ -750,8 +780,11 @@
       <c r="S5">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="T5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -759,16 +792,16 @@
         <v>10900113006</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -777,16 +810,16 @@
         <v>7</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J6">
         <v>7</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M6">
         <v>8</v>
@@ -809,8 +842,11 @@
       <c r="S6">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="T6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -818,34 +854,34 @@
         <v>10900113007</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H7">
         <v>9</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <v>8</v>
       </c>
       <c r="L7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <v>7</v>
@@ -868,8 +904,11 @@
       <c r="S7">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="T7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -877,34 +916,34 @@
         <v>10900113008</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>9</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>7</v>
       </c>
       <c r="I8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K8">
         <v>10</v>
       </c>
       <c r="L8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M8">
         <v>6</v>
@@ -927,8 +966,11 @@
       <c r="S8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="T8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -936,16 +978,16 @@
         <v>10900113009</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>9</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>9</v>
@@ -954,16 +996,16 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K9">
         <v>9</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>7</v>
@@ -986,8 +1028,11 @@
       <c r="S9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="T9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -995,34 +1040,34 @@
         <v>10900113010</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
       <c r="I10">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M10">
         <v>6</v>
@@ -1045,8 +1090,11 @@
       <c r="S10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="T10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1054,34 +1102,34 @@
         <v>10900113011</v>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>8</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H11">
         <v>7</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K11">
         <v>8</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <v>7</v>
@@ -1104,8 +1152,11 @@
       <c r="S11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="T11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1113,34 +1164,34 @@
         <v>10900113012</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>9</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H12">
         <v>4</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J12">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K12">
         <v>9</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M12">
         <v>4</v>
@@ -1163,8 +1214,11 @@
       <c r="S12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="T12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1172,28 +1226,28 @@
         <v>10900113013</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13">
         <v>9</v>
       </c>
       <c r="F13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H13">
         <v>8</v>
       </c>
       <c r="I13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K13">
         <v>9</v>
@@ -1222,8 +1276,11 @@
       <c r="S13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="T13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1231,34 +1288,34 @@
         <v>10900113014</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14">
         <v>9</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H14">
         <v>9</v>
       </c>
       <c r="I14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K14">
         <v>9</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <v>7</v>
@@ -1281,8 +1338,11 @@
       <c r="S14">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="T14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1290,19 +1350,19 @@
         <v>10900113015</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>9</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <v>9</v>
@@ -1311,13 +1371,13 @@
         <v>9</v>
       </c>
       <c r="J15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K15">
         <v>9</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <v>8</v>
@@ -1340,8 +1400,11 @@
       <c r="S15">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="T15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1349,10 +1412,10 @@
         <v>10900113016</v>
       </c>
       <c r="C16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16">
         <v>9</v>
@@ -1361,7 +1424,7 @@
         <v>6</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>8</v>
@@ -1376,7 +1439,7 @@
         <v>9</v>
       </c>
       <c r="L16">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>7</v>
@@ -1399,8 +1462,11 @@
       <c r="S16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="T16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1411,31 +1477,31 @@
         <v>9</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E17">
         <v>9</v>
       </c>
       <c r="F17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H17">
         <v>7</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K17">
         <v>9</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M17">
         <v>8</v>
@@ -1458,8 +1524,11 @@
       <c r="S17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:19">
+      <c r="T17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1470,31 +1539,31 @@
         <v>8</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E18">
         <v>8</v>
       </c>
       <c r="F18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>9</v>
       </c>
       <c r="I18">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K18">
         <v>8</v>
       </c>
       <c r="L18">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M18">
         <v>9</v>
@@ -1517,8 +1586,11 @@
       <c r="S18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:19">
+      <c r="T18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1526,7 +1598,7 @@
         <v>10900113019</v>
       </c>
       <c r="C19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19">
         <v>7</v>
@@ -1538,7 +1610,7 @@
         <v>7</v>
       </c>
       <c r="G19">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -1547,13 +1619,13 @@
         <v>7</v>
       </c>
       <c r="J19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K19">
         <v>9</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M19">
         <v>7</v>
@@ -1576,8 +1648,11 @@
       <c r="S19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:19">
+      <c r="T19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1585,19 +1660,19 @@
         <v>10900113020</v>
       </c>
       <c r="C20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E20">
         <v>9</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <v>7</v>
@@ -1606,13 +1681,13 @@
         <v>6</v>
       </c>
       <c r="J20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K20">
         <v>9</v>
       </c>
       <c r="L20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M20">
         <v>7</v>
@@ -1635,8 +1710,11 @@
       <c r="S20">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="T20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1644,7 +1722,7 @@
         <v>10900113021</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D21">
         <v>5</v>
@@ -1653,25 +1731,25 @@
         <v>9</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H21">
         <v>7</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J21">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21">
         <v>9</v>
       </c>
       <c r="L21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M21">
         <v>6</v>
@@ -1694,8 +1772,11 @@
       <c r="S21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:19">
+      <c r="T21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1703,7 +1784,7 @@
         <v>10900113022</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -1715,22 +1796,22 @@
         <v>6</v>
       </c>
       <c r="G22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22">
         <v>6</v>
       </c>
       <c r="I22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J22">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K22">
         <v>9</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M22">
         <v>8</v>
@@ -1753,8 +1834,11 @@
       <c r="S22">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:19">
+      <c r="T22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1762,34 +1846,34 @@
         <v>10900113023</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>9</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>9</v>
       </c>
       <c r="I23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J23">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K23">
         <v>9</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M23">
         <v>8</v>
@@ -1812,8 +1896,11 @@
       <c r="S23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:19">
+      <c r="T23">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1821,16 +1908,16 @@
         <v>10900113025</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D24">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>9</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24">
         <v>5</v>
@@ -1839,16 +1926,16 @@
         <v>5</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K24">
         <v>9</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M24">
         <v>4</v>
@@ -1871,8 +1958,11 @@
       <c r="S24">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="T24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1880,10 +1970,10 @@
         <v>10900113026</v>
       </c>
       <c r="C25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E25">
         <v>9</v>
@@ -1898,7 +1988,7 @@
         <v>9</v>
       </c>
       <c r="I25">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J25">
         <v>9</v>
@@ -1907,7 +1997,7 @@
         <v>9</v>
       </c>
       <c r="L25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M25">
         <v>9</v>
@@ -1930,8 +2020,11 @@
       <c r="S25">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:19">
+      <c r="T25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1939,34 +2032,34 @@
         <v>10900113027</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E26">
         <v>8</v>
       </c>
       <c r="F26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G26">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H26">
         <v>7</v>
       </c>
       <c r="I26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K26">
         <v>8</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M26">
         <v>7</v>
@@ -1989,8 +2082,11 @@
       <c r="S26">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:19">
+      <c r="T26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2001,31 +2097,31 @@
         <v>6</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E27">
         <v>9</v>
       </c>
       <c r="F27">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H27">
         <v>7</v>
       </c>
       <c r="I27">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K27">
         <v>9</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M27">
         <v>7</v>
@@ -2048,8 +2144,11 @@
       <c r="S27">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:19">
+      <c r="T27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2057,34 +2156,34 @@
         <v>10900113029</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>8</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H28">
         <v>4</v>
       </c>
       <c r="I28">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K28">
         <v>8</v>
       </c>
       <c r="L28">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M28">
         <v>6</v>
@@ -2107,8 +2206,11 @@
       <c r="S28">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:19">
+      <c r="T28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2116,10 +2218,10 @@
         <v>10900113030</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E29">
         <v>9</v>
@@ -2128,16 +2230,16 @@
         <v>7</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H29">
         <v>6</v>
       </c>
       <c r="I29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K29">
         <v>9</v>
@@ -2166,8 +2268,11 @@
       <c r="S29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:19">
+      <c r="T29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2175,19 +2280,19 @@
         <v>10900113031</v>
       </c>
       <c r="C30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E30">
         <v>9</v>
       </c>
       <c r="F30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H30">
         <v>7</v>
@@ -2196,13 +2301,13 @@
         <v>9</v>
       </c>
       <c r="J30">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K30">
         <v>9</v>
       </c>
       <c r="L30">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M30">
         <v>8</v>
@@ -2225,8 +2330,11 @@
       <c r="S30">
         <v>8</v>
       </c>
-    </row>
-    <row r="31" spans="1:19">
+      <c r="T30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2234,10 +2342,10 @@
         <v>10900113032</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E31">
         <v>10</v>
@@ -2246,22 +2354,22 @@
         <v>6</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>6</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J31">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K31">
         <v>10</v>
       </c>
       <c r="L31">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M31">
         <v>6</v>
@@ -2284,8 +2392,11 @@
       <c r="S31">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:19">
+      <c r="T31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2293,16 +2404,16 @@
         <v>10900113033</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>9</v>
       </c>
       <c r="F32">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G32">
         <v>9</v>
@@ -2311,16 +2422,16 @@
         <v>8</v>
       </c>
       <c r="I32">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J32">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K32">
         <v>9</v>
       </c>
       <c r="L32">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M32">
         <v>8</v>
@@ -2343,8 +2454,11 @@
       <c r="S32">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:19">
+      <c r="T32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2352,16 +2466,16 @@
         <v>10900113034</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E33">
         <v>9</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G33">
         <v>9</v>
@@ -2370,10 +2484,10 @@
         <v>6</v>
       </c>
       <c r="I33">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J33">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K33">
         <v>9</v>
@@ -2402,8 +2516,11 @@
       <c r="S33">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:19">
+      <c r="T33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2411,34 +2528,34 @@
         <v>10900113035</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E34">
         <v>7</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H34">
         <v>5</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K34">
         <v>7</v>
       </c>
       <c r="L34">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M34">
         <v>7</v>
@@ -2461,8 +2578,11 @@
       <c r="S34">
         <v>6</v>
       </c>
-    </row>
-    <row r="35" spans="1:19">
+      <c r="T34">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2470,34 +2590,34 @@
         <v>10900113036</v>
       </c>
       <c r="C35">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>6</v>
       </c>
       <c r="F35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H35">
         <v>9</v>
       </c>
       <c r="I35">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K35">
         <v>6</v>
       </c>
       <c r="L35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M35">
         <v>9</v>
@@ -2520,8 +2640,11 @@
       <c r="S35">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:19">
+      <c r="T35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2529,16 +2652,16 @@
         <v>10900113037</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E36">
         <v>6</v>
       </c>
       <c r="F36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G36">
         <v>6</v>
@@ -2547,16 +2670,16 @@
         <v>4</v>
       </c>
       <c r="I36">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K36">
         <v>6</v>
       </c>
       <c r="L36">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M36">
         <v>6</v>
@@ -2579,8 +2702,11 @@
       <c r="S36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="T36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2591,31 +2717,31 @@
         <v>7</v>
       </c>
       <c r="D37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E37">
         <v>7</v>
       </c>
       <c r="F37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37">
         <v>7</v>
       </c>
       <c r="I37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K37">
         <v>7</v>
       </c>
       <c r="L37">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M37">
         <v>7</v>
@@ -2638,8 +2764,11 @@
       <c r="S37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:19">
+      <c r="T37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2647,19 +2776,19 @@
         <v>10900113039</v>
       </c>
       <c r="C38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E38">
         <v>7</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G38">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H38">
         <v>8</v>
@@ -2668,7 +2797,7 @@
         <v>8</v>
       </c>
       <c r="J38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K38">
         <v>7</v>
@@ -2697,8 +2826,11 @@
       <c r="S38">
         <v>9</v>
       </c>
-    </row>
-    <row r="39" spans="1:19">
+      <c r="T38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2706,34 +2838,34 @@
         <v>10900113040</v>
       </c>
       <c r="C39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F39">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H39">
         <v>7</v>
       </c>
       <c r="I39">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K39">
         <v>7</v>
       </c>
       <c r="L39">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M39">
         <v>7</v>
@@ -2756,8 +2888,11 @@
       <c r="S39">
         <v>9</v>
       </c>
-    </row>
-    <row r="40" spans="1:19">
+      <c r="T39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2765,34 +2900,34 @@
         <v>10900113041</v>
       </c>
       <c r="C40">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E40">
         <v>6</v>
       </c>
       <c r="F40">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H40">
         <v>7</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J40">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K40">
         <v>6</v>
       </c>
       <c r="L40">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M40">
         <v>7</v>
@@ -2815,8 +2950,11 @@
       <c r="S40">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:19">
+      <c r="T40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2827,7 +2965,7 @@
         <v>6</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -2842,16 +2980,16 @@
         <v>6</v>
       </c>
       <c r="I41">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K41">
         <v>6</v>
       </c>
       <c r="L41">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M41">
         <v>5</v>
@@ -2874,8 +3012,11 @@
       <c r="S41">
         <v>7</v>
       </c>
-    </row>
-    <row r="42" spans="1:19">
+      <c r="T41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2883,19 +3024,19 @@
         <v>10900113043</v>
       </c>
       <c r="C42">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E42">
         <v>7</v>
       </c>
       <c r="F42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G42">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42">
         <v>7</v>
@@ -2904,7 +3045,7 @@
         <v>9</v>
       </c>
       <c r="J42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K42">
         <v>7</v>
@@ -2933,8 +3074,11 @@
       <c r="S42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="T42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2942,34 +3086,34 @@
         <v>10900113044</v>
       </c>
       <c r="C43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E43">
         <v>7</v>
       </c>
       <c r="F43">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G43">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H43">
         <v>4</v>
       </c>
       <c r="I43">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K43">
         <v>7</v>
       </c>
       <c r="L43">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M43">
         <v>6</v>
@@ -2992,8 +3136,11 @@
       <c r="S43">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:19">
+      <c r="T43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3001,16 +3148,16 @@
         <v>10900113045</v>
       </c>
       <c r="C44">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E44">
         <v>7</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G44">
         <v>7</v>
@@ -3019,10 +3166,10 @@
         <v>5</v>
       </c>
       <c r="I44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J44">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K44">
         <v>7</v>
@@ -3051,8 +3198,11 @@
       <c r="S44">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:19">
+      <c r="T44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3060,7 +3210,7 @@
         <v>10900113046</v>
       </c>
       <c r="C45">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D45">
         <v>5</v>
@@ -3072,13 +3222,13 @@
         <v>5</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H45">
         <v>7</v>
       </c>
       <c r="I45">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J45">
         <v>5</v>
@@ -3087,7 +3237,7 @@
         <v>6</v>
       </c>
       <c r="L45">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M45">
         <v>7</v>
@@ -3110,8 +3260,11 @@
       <c r="S45">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="1:19">
+      <c r="T45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3119,7 +3272,7 @@
         <v>10900113047</v>
       </c>
       <c r="C46">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -3128,7 +3281,7 @@
         <v>6</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G46">
         <v>6</v>
@@ -3137,16 +3290,16 @@
         <v>7</v>
       </c>
       <c r="I46">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K46">
         <v>6</v>
       </c>
       <c r="L46">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M46">
         <v>6</v>
@@ -3169,8 +3322,11 @@
       <c r="S46">
         <v>7</v>
       </c>
-    </row>
-    <row r="47" spans="1:19">
+      <c r="T46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3178,34 +3334,34 @@
         <v>10900113048</v>
       </c>
       <c r="C47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E47">
         <v>7</v>
       </c>
       <c r="F47">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G47">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H47">
         <v>8</v>
       </c>
       <c r="I47">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J47">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K47">
         <v>7</v>
       </c>
       <c r="L47">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M47">
         <v>6</v>
@@ -3228,8 +3384,11 @@
       <c r="S47">
         <v>9</v>
       </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="T47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3237,16 +3396,16 @@
         <v>10900113049</v>
       </c>
       <c r="C48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48">
         <v>7</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G48">
         <v>7</v>
@@ -3255,16 +3414,16 @@
         <v>7</v>
       </c>
       <c r="I48">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K48">
         <v>7</v>
       </c>
       <c r="L48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M48">
         <v>7</v>
@@ -3287,8 +3446,11 @@
       <c r="S48">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:19">
+      <c r="T48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3296,34 +3458,34 @@
         <v>10900113050</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E49">
         <v>7</v>
       </c>
       <c r="F49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H49">
         <v>7</v>
       </c>
       <c r="I49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K49">
         <v>7</v>
       </c>
       <c r="L49">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M49">
         <v>6</v>
@@ -3346,8 +3508,11 @@
       <c r="S49">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="T49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3355,16 +3520,16 @@
         <v>10900113051</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E50">
         <v>6</v>
       </c>
       <c r="F50">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G50">
         <v>6</v>
@@ -3373,16 +3538,16 @@
         <v>4</v>
       </c>
       <c r="I50">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K50">
         <v>6</v>
       </c>
       <c r="L50">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M50">
         <v>7</v>
@@ -3405,8 +3570,11 @@
       <c r="S50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:19">
+      <c r="T50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3414,25 +3582,25 @@
         <v>10900113052</v>
       </c>
       <c r="C51">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E51">
         <v>6</v>
       </c>
       <c r="F51">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H51">
         <v>4</v>
       </c>
       <c r="I51">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J51">
         <v>5</v>
@@ -3441,7 +3609,7 @@
         <v>6</v>
       </c>
       <c r="L51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M51">
         <v>6</v>
@@ -3464,8 +3632,11 @@
       <c r="S51">
         <v>7</v>
       </c>
-    </row>
-    <row r="52" spans="1:19">
+      <c r="T51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3473,34 +3644,34 @@
         <v>10900113053</v>
       </c>
       <c r="C52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>7</v>
       </c>
       <c r="F52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H52">
         <v>4</v>
       </c>
       <c r="I52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K52">
         <v>7</v>
       </c>
       <c r="L52">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M52">
         <v>5</v>
@@ -3523,8 +3694,11 @@
       <c r="S52">
         <v>7</v>
       </c>
-    </row>
-    <row r="53" spans="1:19">
+      <c r="T52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3532,16 +3706,16 @@
         <v>10900113054</v>
       </c>
       <c r="C53">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D53">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E53">
         <v>7</v>
       </c>
       <c r="F53">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G53">
         <v>7</v>
@@ -3550,16 +3724,16 @@
         <v>5</v>
       </c>
       <c r="I53">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J53">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K53">
         <v>7</v>
       </c>
       <c r="L53">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M53">
         <v>7</v>
@@ -3582,8 +3756,11 @@
       <c r="S53">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="T53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3591,34 +3768,34 @@
         <v>10900113055</v>
       </c>
       <c r="C54">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>7</v>
       </c>
       <c r="F54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G54">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H54">
         <v>9</v>
       </c>
       <c r="I54">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K54">
         <v>7</v>
       </c>
       <c r="L54">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M54">
         <v>8</v>
@@ -3641,8 +3818,11 @@
       <c r="S54">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="T54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3653,31 +3833,31 @@
         <v>6</v>
       </c>
       <c r="D55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E55">
         <v>6</v>
       </c>
       <c r="F55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H55">
         <v>5</v>
       </c>
       <c r="I55">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K55">
         <v>6</v>
       </c>
       <c r="L55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M55">
         <v>7</v>
@@ -3700,8 +3880,11 @@
       <c r="S55">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="1:19">
+      <c r="T55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3709,34 +3892,34 @@
         <v>10900113057</v>
       </c>
       <c r="C56">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E56">
         <v>6</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H56">
         <v>4</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J56">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K56">
         <v>6</v>
       </c>
       <c r="L56">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M56">
         <v>4</v>
@@ -3759,8 +3942,11 @@
       <c r="S56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:19">
+      <c r="T56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3768,7 +3954,7 @@
         <v>10900113058</v>
       </c>
       <c r="C57">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D57">
         <v>8</v>
@@ -3777,16 +3963,16 @@
         <v>7</v>
       </c>
       <c r="F57">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G57">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H57">
         <v>7</v>
       </c>
       <c r="I57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J57">
         <v>8</v>
@@ -3795,7 +3981,7 @@
         <v>7</v>
       </c>
       <c r="L57">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M57">
         <v>8</v>
@@ -3818,8 +4004,11 @@
       <c r="S57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:19">
+      <c r="T57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3830,31 +4019,31 @@
         <v>7</v>
       </c>
       <c r="D58">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E58">
         <v>7</v>
       </c>
       <c r="F58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G58">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H58">
         <v>8</v>
       </c>
       <c r="I58">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J58">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K58">
         <v>7</v>
       </c>
       <c r="L58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M58">
         <v>9</v>
@@ -3877,8 +4066,11 @@
       <c r="S58">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="T58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3886,34 +4078,34 @@
         <v>10900113060</v>
       </c>
       <c r="C59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E59">
         <v>7</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G59">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H59">
         <v>7</v>
       </c>
       <c r="I59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J59">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K59">
         <v>7</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M59">
         <v>7</v>
@@ -3936,8 +4128,11 @@
       <c r="S59">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:19">
+      <c r="T59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3945,19 +4140,19 @@
         <v>10900113061</v>
       </c>
       <c r="C60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E60">
         <v>6</v>
       </c>
       <c r="F60">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H60">
         <v>5</v>
@@ -3972,7 +4167,7 @@
         <v>6</v>
       </c>
       <c r="L60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M60">
         <v>7</v>
@@ -3995,8 +4190,11 @@
       <c r="S60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:19">
+      <c r="T60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4004,16 +4202,16 @@
         <v>10900113062</v>
       </c>
       <c r="C61">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E61">
         <v>6</v>
       </c>
       <c r="F61">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G61">
         <v>6</v>
@@ -4025,13 +4223,13 @@
         <v>6</v>
       </c>
       <c r="J61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K61">
         <v>6</v>
       </c>
       <c r="L61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M61">
         <v>6</v>
@@ -4054,8 +4252,11 @@
       <c r="S61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:19">
+      <c r="T61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4063,19 +4264,19 @@
         <v>10900113063</v>
       </c>
       <c r="C62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E62">
         <v>7</v>
       </c>
       <c r="F62">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G62">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H62">
         <v>7</v>
@@ -4084,13 +4285,13 @@
         <v>7</v>
       </c>
       <c r="J62">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K62">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L62">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M62">
         <v>7</v>
@@ -4113,8 +4314,11 @@
       <c r="S62">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:19">
+      <c r="T62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4122,10 +4326,10 @@
         <v>10900113064</v>
       </c>
       <c r="C63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E63">
         <v>7</v>
@@ -4134,22 +4338,22 @@
         <v>7</v>
       </c>
       <c r="G63">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H63">
         <v>8</v>
       </c>
       <c r="I63">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K63">
         <v>7</v>
       </c>
       <c r="L63">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M63">
         <v>8</v>
@@ -4172,8 +4376,11 @@
       <c r="S63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:19">
+      <c r="T63">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4199,16 +4406,16 @@
         <v>6</v>
       </c>
       <c r="I64">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K64">
         <v>7</v>
       </c>
       <c r="L64">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M64">
         <v>7</v>
@@ -4231,8 +4438,11 @@
       <c r="S64">
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:19">
+      <c r="T64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4240,25 +4450,25 @@
         <v>10900113066</v>
       </c>
       <c r="C65">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D65">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E65">
         <v>6</v>
       </c>
       <c r="F65">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H65">
         <v>7</v>
       </c>
       <c r="I65">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J65">
         <v>6</v>
@@ -4267,7 +4477,7 @@
         <v>6</v>
       </c>
       <c r="L65">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M65">
         <v>7</v>
@@ -4290,8 +4500,11 @@
       <c r="S65">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:19">
+      <c r="T65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4299,34 +4512,34 @@
         <v>10900113067</v>
       </c>
       <c r="C66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E66">
         <v>6</v>
       </c>
       <c r="F66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G66">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H66">
         <v>8</v>
       </c>
       <c r="I66">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J66">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K66">
         <v>6</v>
       </c>
       <c r="L66">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M66">
         <v>7</v>
@@ -4349,8 +4562,11 @@
       <c r="S66">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="T66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4358,16 +4574,16 @@
         <v>10900113068</v>
       </c>
       <c r="C67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E67">
         <v>7</v>
       </c>
       <c r="F67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G67">
         <v>7</v>
@@ -4376,16 +4592,16 @@
         <v>8</v>
       </c>
       <c r="I67">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K67">
         <v>7</v>
       </c>
       <c r="L67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M67">
         <v>7</v>
@@ -4408,8 +4624,11 @@
       <c r="S67">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:19">
+      <c r="T67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4420,31 +4639,31 @@
         <v>8</v>
       </c>
       <c r="D68">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E68">
         <v>7</v>
       </c>
       <c r="F68">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H68">
         <v>9</v>
       </c>
       <c r="I68">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J68">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K68">
         <v>7</v>
       </c>
       <c r="L68">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M68">
         <v>8</v>
@@ -4467,8 +4686,11 @@
       <c r="S68">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:19">
+      <c r="T68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4479,31 +4701,31 @@
         <v>7</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E69">
         <v>7</v>
       </c>
       <c r="F69">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H69">
         <v>6</v>
       </c>
       <c r="I69">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J69">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K69">
         <v>7</v>
       </c>
       <c r="L69">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M69">
         <v>7</v>
@@ -4526,8 +4748,11 @@
       <c r="S69">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="T69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4535,19 +4760,19 @@
         <v>10900113071</v>
       </c>
       <c r="C70">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E70">
         <v>6</v>
       </c>
       <c r="F70">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G70">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H70">
         <v>8</v>
@@ -4556,13 +4781,13 @@
         <v>8</v>
       </c>
       <c r="J70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K70">
         <v>6</v>
       </c>
       <c r="L70">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M70">
         <v>9</v>
@@ -4585,8 +4810,11 @@
       <c r="S70">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4594,34 +4822,34 @@
         <v>10900113072</v>
       </c>
       <c r="C71">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E71">
         <v>6</v>
       </c>
       <c r="F71">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H71">
         <v>8</v>
       </c>
       <c r="I71">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J71">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K71">
         <v>6</v>
       </c>
       <c r="L71">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M71">
         <v>7</v>
@@ -4644,8 +4872,11 @@
       <c r="S71">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:19">
+      <c r="T71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4653,34 +4884,34 @@
         <v>10900113073</v>
       </c>
       <c r="C72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E72">
         <v>7</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G72">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H72">
         <v>7</v>
       </c>
       <c r="I72">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J72">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K72">
         <v>7</v>
       </c>
       <c r="L72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M72">
         <v>5</v>
@@ -4703,8 +4934,11 @@
       <c r="S72">
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:19">
+      <c r="T72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4712,31 +4946,31 @@
         <v>10900113074</v>
       </c>
       <c r="C73">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E73">
         <v>7</v>
       </c>
       <c r="F73">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H73">
         <v>7</v>
       </c>
       <c r="I73">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J73">
         <v>6</v>
       </c>
       <c r="K73">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L73">
         <v>6</v>
@@ -4762,8 +4996,11 @@
       <c r="S73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:19">
+      <c r="T73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4771,34 +5008,34 @@
         <v>10900113075</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D74">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E74">
         <v>5</v>
       </c>
       <c r="F74">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G74">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H74">
         <v>6</v>
       </c>
       <c r="I74">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J74">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K74">
         <v>5</v>
       </c>
       <c r="L74">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M74">
         <v>5</v>
@@ -4821,8 +5058,11 @@
       <c r="S74">
         <v>6</v>
       </c>
-    </row>
-    <row r="75" spans="1:19">
+      <c r="T74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4830,19 +5070,19 @@
         <v>10900113076</v>
       </c>
       <c r="C75">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D75">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E75">
         <v>4</v>
       </c>
       <c r="F75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G75">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H75">
         <v>9</v>
@@ -4851,13 +5091,13 @@
         <v>8</v>
       </c>
       <c r="J75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K75">
         <v>4</v>
       </c>
       <c r="L75">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M75">
         <v>6</v>
@@ -4880,8 +5120,11 @@
       <c r="S75">
         <v>8</v>
       </c>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="T75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4889,34 +5132,34 @@
         <v>10900113077</v>
       </c>
       <c r="C76">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E76">
         <v>5</v>
       </c>
       <c r="F76">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G76">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H76">
         <v>6</v>
       </c>
       <c r="I76">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J76">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K76">
         <v>5</v>
       </c>
       <c r="L76">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M76">
         <v>7</v>
@@ -4939,8 +5182,11 @@
       <c r="S76">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:19">
+      <c r="T76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4948,25 +5194,25 @@
         <v>10900113078</v>
       </c>
       <c r="C77">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E77">
         <v>3</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H77">
         <v>7</v>
       </c>
       <c r="I77">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J77">
         <v>5</v>
@@ -4975,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="L77">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M77">
         <v>7</v>
@@ -4998,8 +5244,11 @@
       <c r="S77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:19">
+      <c r="T77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5007,10 +5256,10 @@
         <v>10900113079</v>
       </c>
       <c r="C78">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D78">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E78">
         <v>5</v>
@@ -5019,13 +5268,13 @@
         <v>8</v>
       </c>
       <c r="G78">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H78">
         <v>10</v>
       </c>
       <c r="I78">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J78">
         <v>8</v>
@@ -5057,8 +5306,11 @@
       <c r="S78">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="T78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5066,34 +5318,34 @@
         <v>10900113080</v>
       </c>
       <c r="C79">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D79">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E79">
         <v>4</v>
       </c>
       <c r="F79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G79">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H79">
         <v>8</v>
       </c>
       <c r="I79">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K79">
         <v>4</v>
       </c>
       <c r="L79">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M79">
         <v>7</v>
@@ -5116,8 +5368,11 @@
       <c r="S79">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:19">
+      <c r="T79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5125,34 +5380,34 @@
         <v>10900113081</v>
       </c>
       <c r="C80">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E80">
         <v>5</v>
       </c>
       <c r="F80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G80">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H80">
         <v>7</v>
       </c>
       <c r="I80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K80">
         <v>5</v>
       </c>
       <c r="L80">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M80">
         <v>6</v>
@@ -5175,8 +5430,11 @@
       <c r="S80">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:19">
+      <c r="T80">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5184,34 +5442,34 @@
         <v>10900113082</v>
       </c>
       <c r="C81">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E81">
         <v>4</v>
       </c>
       <c r="F81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G81">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H81">
         <v>5</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K81">
         <v>4</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M81">
         <v>5</v>
@@ -5234,8 +5492,11 @@
       <c r="S81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="T81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5243,34 +5504,34 @@
         <v>10900113083</v>
       </c>
       <c r="C82">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D82">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E82">
         <v>5</v>
       </c>
       <c r="F82">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G82">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H82">
         <v>10</v>
       </c>
       <c r="I82">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J82">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K82">
         <v>5</v>
       </c>
       <c r="L82">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M82">
         <v>10</v>
@@ -5293,8 +5554,11 @@
       <c r="S82">
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="T82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5302,34 +5566,34 @@
         <v>10900113084</v>
       </c>
       <c r="C83">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D83">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E83">
         <v>3</v>
       </c>
       <c r="F83">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G83">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H83">
         <v>3</v>
       </c>
       <c r="I83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J83">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K83">
         <v>3</v>
       </c>
       <c r="L83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M83">
         <v>8</v>
@@ -5352,8 +5616,11 @@
       <c r="S83">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:19">
+      <c r="T83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5361,34 +5628,34 @@
         <v>10900113085</v>
       </c>
       <c r="C84">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E84">
         <v>5</v>
       </c>
       <c r="F84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G84">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H84">
         <v>6</v>
       </c>
       <c r="I84">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K84">
         <v>5</v>
       </c>
       <c r="L84">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M84">
         <v>7</v>
@@ -5411,8 +5678,11 @@
       <c r="S84">
         <v>8</v>
       </c>
-    </row>
-    <row r="85" spans="1:19">
+      <c r="T84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5420,34 +5690,34 @@
         <v>10900113086</v>
       </c>
       <c r="C85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E85">
         <v>4</v>
       </c>
       <c r="F85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H85">
         <v>9</v>
       </c>
       <c r="I85">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K85">
         <v>4</v>
       </c>
       <c r="L85">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M85">
         <v>7</v>
@@ -5470,8 +5740,11 @@
       <c r="S85">
         <v>8</v>
       </c>
-    </row>
-    <row r="86" spans="1:19">
+      <c r="T85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5479,34 +5752,34 @@
         <v>10900113087</v>
       </c>
       <c r="C86">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E86">
         <v>5</v>
       </c>
       <c r="F86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G86">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H86">
         <v>8</v>
       </c>
       <c r="I86">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K86">
         <v>5</v>
       </c>
       <c r="L86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M86">
         <v>6</v>
@@ -5529,8 +5802,11 @@
       <c r="S86">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:19">
+      <c r="T86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5538,34 +5814,34 @@
         <v>10900113088</v>
       </c>
       <c r="C87">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E87">
         <v>4</v>
       </c>
       <c r="F87">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G87">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H87">
         <v>8</v>
       </c>
       <c r="I87">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J87">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K87">
         <v>4</v>
       </c>
       <c r="L87">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M87">
         <v>6</v>
@@ -5588,8 +5864,11 @@
       <c r="S87">
         <v>8</v>
       </c>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="T87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5597,34 +5876,34 @@
         <v>10900113089</v>
       </c>
       <c r="C88">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D88">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E88">
         <v>5</v>
       </c>
       <c r="F88">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G88">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H88">
         <v>9</v>
       </c>
       <c r="I88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J88">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K88">
         <v>5</v>
       </c>
       <c r="L88">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M88">
         <v>7</v>
@@ -5647,8 +5926,11 @@
       <c r="S88">
         <v>10</v>
       </c>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="T88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5656,7 +5938,7 @@
         <v>10900113091</v>
       </c>
       <c r="C89">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D89">
         <v>7</v>
@@ -5665,19 +5947,19 @@
         <v>3</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G89">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H89">
         <v>6</v>
       </c>
       <c r="I89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J89">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K89">
         <v>3</v>
@@ -5706,8 +5988,11 @@
       <c r="S89">
         <v>8</v>
       </c>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="T89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5715,34 +6000,34 @@
         <v>10900113092</v>
       </c>
       <c r="C90">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E90">
         <v>5</v>
       </c>
       <c r="F90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G90">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H90">
         <v>8</v>
       </c>
       <c r="I90">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K90">
         <v>5</v>
       </c>
       <c r="L90">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M90">
         <v>7</v>
@@ -5765,8 +6050,11 @@
       <c r="S90">
         <v>10</v>
       </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="T90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5774,10 +6062,10 @@
         <v>10900113093</v>
       </c>
       <c r="C91">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E91">
         <v>4</v>
@@ -5786,22 +6074,22 @@
         <v>8</v>
       </c>
       <c r="G91">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H91">
         <v>8</v>
       </c>
       <c r="I91">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J91">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K91">
         <v>4</v>
       </c>
       <c r="L91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M91">
         <v>7</v>
@@ -5824,8 +6112,11 @@
       <c r="S91">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:19">
+      <c r="T91">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5833,19 +6124,19 @@
         <v>10900113094</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D92">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E92">
         <v>5</v>
       </c>
       <c r="F92">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G92">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H92">
         <v>6</v>
@@ -5854,13 +6145,13 @@
         <v>7</v>
       </c>
       <c r="J92">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K92">
         <v>5</v>
       </c>
       <c r="L92">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M92">
         <v>6</v>
@@ -5883,8 +6174,11 @@
       <c r="S92">
         <v>8</v>
       </c>
-    </row>
-    <row r="93" spans="1:19">
+      <c r="T92">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5892,34 +6186,34 @@
         <v>10900113096</v>
       </c>
       <c r="C93">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D93">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E93">
         <v>4</v>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H93">
         <v>6</v>
       </c>
       <c r="I93">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J93">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K93">
         <v>4</v>
       </c>
       <c r="L93">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M93">
         <v>6</v>
@@ -5942,8 +6236,11 @@
       <c r="S93">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:19">
+      <c r="T93">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5951,25 +6248,25 @@
         <v>10900113097</v>
       </c>
       <c r="C94">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E94">
         <v>5</v>
       </c>
       <c r="F94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G94">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H94">
         <v>4</v>
       </c>
       <c r="I94">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J94">
         <v>5</v>
@@ -5978,7 +6275,7 @@
         <v>5</v>
       </c>
       <c r="L94">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M94">
         <v>5</v>
@@ -6001,8 +6298,11 @@
       <c r="S94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:19">
+      <c r="T94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6010,34 +6310,34 @@
         <v>10900113099</v>
       </c>
       <c r="C95">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D95">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E95">
         <v>3</v>
       </c>
       <c r="F95">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G95">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="H95">
         <v>5</v>
       </c>
       <c r="I95">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K95">
         <v>3</v>
       </c>
       <c r="L95">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M95">
         <v>6</v>
@@ -6060,8 +6360,11 @@
       <c r="S95">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:19">
+      <c r="T95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6069,34 +6372,34 @@
         <v>10900113100</v>
       </c>
       <c r="C96">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E96">
         <v>5</v>
       </c>
       <c r="F96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G96">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H96">
         <v>9</v>
       </c>
       <c r="I96">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K96">
         <v>5</v>
       </c>
       <c r="L96">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M96">
         <v>7</v>
@@ -6119,8 +6422,11 @@
       <c r="S96">
         <v>9</v>
       </c>
-    </row>
-    <row r="97" spans="1:19">
+      <c r="T96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6128,7 +6434,7 @@
         <v>10900113101</v>
       </c>
       <c r="C97">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D97">
         <v>7</v>
@@ -6140,7 +6446,7 @@
         <v>7</v>
       </c>
       <c r="G97">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H97">
         <v>8</v>
@@ -6155,7 +6461,7 @@
         <v>4</v>
       </c>
       <c r="L97">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M97">
         <v>8</v>
@@ -6178,8 +6484,11 @@
       <c r="S97">
         <v>10</v>
       </c>
-    </row>
-    <row r="98" spans="1:19">
+      <c r="T97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6187,19 +6496,19 @@
         <v>10900113102</v>
       </c>
       <c r="C98">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D98">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E98">
         <v>5</v>
       </c>
       <c r="F98">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G98">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H98">
         <v>9</v>
@@ -6208,13 +6517,13 @@
         <v>7</v>
       </c>
       <c r="J98">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K98">
         <v>5</v>
       </c>
       <c r="L98">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M98">
         <v>7</v>
@@ -6237,8 +6546,11 @@
       <c r="S98">
         <v>10</v>
       </c>
-    </row>
-    <row r="99" spans="1:19">
+      <c r="T98">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6246,7 +6558,7 @@
         <v>10900113103</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -6258,13 +6570,13 @@
         <v>6</v>
       </c>
       <c r="G99">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H99">
         <v>5</v>
       </c>
       <c r="I99">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J99">
         <v>6</v>
@@ -6273,7 +6585,7 @@
         <v>4</v>
       </c>
       <c r="L99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M99">
         <v>7</v>
@@ -6296,8 +6608,11 @@
       <c r="S99">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:19">
+      <c r="T99">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6305,34 +6620,34 @@
         <v>10900113104</v>
       </c>
       <c r="C100">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F100">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G100">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H100">
         <v>6</v>
       </c>
       <c r="I100">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J100">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K100">
         <v>5</v>
       </c>
       <c r="L100">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M100">
         <v>6</v>
@@ -6355,8 +6670,11 @@
       <c r="S100">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:19">
+      <c r="T100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6364,34 +6682,34 @@
         <v>10900113105</v>
       </c>
       <c r="C101">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E101">
         <v>3</v>
       </c>
       <c r="F101">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G101">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H101">
         <v>9</v>
       </c>
       <c r="I101">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K101">
         <v>3</v>
       </c>
       <c r="L101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M101">
         <v>7</v>
@@ -6414,8 +6732,11 @@
       <c r="S101">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:19">
+      <c r="T101">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6423,25 +6744,25 @@
         <v>10900113106</v>
       </c>
       <c r="C102">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E102">
         <v>5</v>
       </c>
       <c r="F102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G102">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H102">
         <v>6</v>
       </c>
       <c r="I102">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J102">
         <v>7</v>
@@ -6450,7 +6771,7 @@
         <v>5</v>
       </c>
       <c r="L102">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M102">
         <v>8</v>
@@ -6473,8 +6794,11 @@
       <c r="S102">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:19">
+      <c r="T102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6482,16 +6806,16 @@
         <v>10900113107</v>
       </c>
       <c r="C103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E103">
         <v>4</v>
       </c>
       <c r="F103">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G103">
         <v>4</v>
@@ -6503,13 +6827,13 @@
         <v>4</v>
       </c>
       <c r="J103">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K103">
         <v>4</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M103">
         <v>4</v>
@@ -6532,8 +6856,11 @@
       <c r="S103">
         <v>4</v>
       </c>
-    </row>
-    <row r="104" spans="1:19">
+      <c r="T103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6541,34 +6868,34 @@
         <v>10900113108</v>
       </c>
       <c r="C104">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D104">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E104">
         <v>5</v>
       </c>
       <c r="F104">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G104">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H104">
         <v>9</v>
       </c>
       <c r="I104">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J104">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K104">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L104">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M104">
         <v>8</v>
@@ -6591,8 +6918,11 @@
       <c r="S104">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:19">
+      <c r="T104">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6600,7 +6930,7 @@
         <v>10900113109</v>
       </c>
       <c r="C105">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D105">
         <v>6</v>
@@ -6609,19 +6939,19 @@
         <v>4</v>
       </c>
       <c r="F105">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G105">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H105">
         <v>9</v>
       </c>
       <c r="I105">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J105">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K105">
         <v>4</v>
@@ -6650,8 +6980,11 @@
       <c r="S105">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:19">
+      <c r="T105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -6659,34 +6992,34 @@
         <v>10900113110</v>
       </c>
       <c r="C106">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D106">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E106">
         <v>5</v>
       </c>
       <c r="F106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G106">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H106">
         <v>8</v>
       </c>
       <c r="I106">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J106">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K106">
         <v>5</v>
       </c>
       <c r="L106">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M106">
         <v>7</v>
@@ -6709,8 +7042,11 @@
       <c r="S106">
         <v>10</v>
       </c>
-    </row>
-    <row r="107" spans="1:19">
+      <c r="T106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -6718,7 +7054,7 @@
         <v>10900113111</v>
       </c>
       <c r="C107">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D107">
         <v>8</v>
@@ -6730,22 +7066,22 @@
         <v>8</v>
       </c>
       <c r="G107">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H107">
         <v>10</v>
       </c>
       <c r="I107">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J107">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K107">
         <v>3</v>
       </c>
       <c r="L107">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M107">
         <v>9</v>
@@ -6768,8 +7104,11 @@
       <c r="S107">
         <v>10</v>
       </c>
-    </row>
-    <row r="108" spans="1:19">
+      <c r="T107">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -6777,34 +7116,34 @@
         <v>10900113112</v>
       </c>
       <c r="C108">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E108">
         <v>5</v>
       </c>
       <c r="F108">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G108">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H108">
         <v>9</v>
       </c>
       <c r="I108">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K108">
         <v>5</v>
       </c>
       <c r="L108">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M108">
         <v>7</v>
@@ -6827,8 +7166,11 @@
       <c r="S108">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:19">
+      <c r="T108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -6839,16 +7181,16 @@
         <v>4</v>
       </c>
       <c r="D109">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E109">
         <v>4</v>
       </c>
       <c r="F109">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G109">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H109">
         <v>7</v>
@@ -6857,13 +7199,13 @@
         <v>6</v>
       </c>
       <c r="J109">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K109">
         <v>4</v>
       </c>
       <c r="L109">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M109">
         <v>7</v>
@@ -6886,8 +7228,11 @@
       <c r="S109">
         <v>8</v>
       </c>
-    </row>
-    <row r="110" spans="1:19">
+      <c r="T109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6895,34 +7240,34 @@
         <v>10900113114</v>
       </c>
       <c r="C110">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D110">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E110">
         <v>5</v>
       </c>
       <c r="F110">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G110">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H110">
         <v>9</v>
       </c>
       <c r="I110">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J110">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K110">
         <v>5</v>
       </c>
       <c r="L110">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M110">
         <v>6</v>
@@ -6945,8 +7290,11 @@
       <c r="S110">
         <v>7</v>
       </c>
-    </row>
-    <row r="111" spans="1:19">
+      <c r="T110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6954,34 +7302,34 @@
         <v>10900113115</v>
       </c>
       <c r="C111">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D111">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E111">
         <v>4</v>
       </c>
       <c r="F111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G111">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H111">
         <v>5</v>
       </c>
       <c r="I111">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K111">
         <v>4</v>
       </c>
       <c r="L111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M111">
         <v>5</v>
@@ -7004,8 +7352,11 @@
       <c r="S111">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="1:19">
+      <c r="T111">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7013,10 +7364,10 @@
         <v>10900113116</v>
       </c>
       <c r="C112">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D112">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E112">
         <v>5</v>
@@ -7025,22 +7376,22 @@
         <v>7</v>
       </c>
       <c r="G112">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H112">
         <v>7</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J112">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K112">
         <v>5</v>
       </c>
       <c r="L112">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M112">
         <v>6</v>
@@ -7063,8 +7414,11 @@
       <c r="S112">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:19">
+      <c r="T112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7072,34 +7426,34 @@
         <v>10900113117</v>
       </c>
       <c r="C113">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D113">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E113">
         <v>3</v>
       </c>
       <c r="F113">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G113">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H113">
         <v>6</v>
       </c>
       <c r="I113">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J113">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K113">
         <v>3</v>
       </c>
       <c r="L113">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M113">
         <v>8</v>
@@ -7121,6 +7475,9 @@
       </c>
       <c r="S113">
         <v>8</v>
+      </c>
+      <c r="T113">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Test with manipulated Dataset/ManipulatedDataset.xlsx
+++ b/Test with manipulated Dataset/ManipulatedDataset.xlsx
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N85" workbookViewId="0">
-      <selection activeCell="T113" sqref="T113"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -674,7 +674,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>9</v>
@@ -692,7 +692,7 @@
         <v>9</v>
       </c>
       <c r="K4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>9</v>
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="N4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O4">
         <v>8</v>
@@ -798,7 +798,7 @@
         <v>7</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>7</v>
@@ -816,7 +816,7 @@
         <v>7</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L6">
         <v>7</v>
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6">
         <v>8</v>
@@ -860,7 +860,7 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -878,7 +878,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -887,7 +887,7 @@
         <v>7</v>
       </c>
       <c r="N7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O7">
         <v>8</v>
@@ -922,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -984,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -1046,7 +1046,7 @@
         <v>9</v>
       </c>
       <c r="E10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1064,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10">
         <v>9</v>
@@ -1073,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="N10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10">
         <v>7</v>
@@ -1108,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -1126,7 +1126,7 @@
         <v>5</v>
       </c>
       <c r="K11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -1135,7 +1135,7 @@
         <v>7</v>
       </c>
       <c r="N11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11">
         <v>8</v>
@@ -1170,7 +1170,7 @@
         <v>8</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -1188,7 +1188,7 @@
         <v>8</v>
       </c>
       <c r="K12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L12">
         <v>8</v>
@@ -1197,7 +1197,7 @@
         <v>4</v>
       </c>
       <c r="N12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O12">
         <v>5</v>
@@ -1232,7 +1232,7 @@
         <v>9</v>
       </c>
       <c r="E13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -1250,7 +1250,7 @@
         <v>9</v>
       </c>
       <c r="K13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L13">
         <v>9</v>
@@ -1259,7 +1259,7 @@
         <v>8</v>
       </c>
       <c r="N13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O13">
         <v>7</v>
@@ -1356,7 +1356,7 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="K15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>5</v>
@@ -1383,7 +1383,7 @@
         <v>8</v>
       </c>
       <c r="N15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O15">
         <v>9</v>
@@ -1480,7 +1480,7 @@
         <v>9</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>6</v>
@@ -1498,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="K17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L17">
         <v>9</v>
@@ -1507,7 +1507,7 @@
         <v>8</v>
       </c>
       <c r="N17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17">
         <v>8</v>
@@ -1542,7 +1542,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -1560,7 +1560,7 @@
         <v>4</v>
       </c>
       <c r="K18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L18">
         <v>4</v>
@@ -1569,7 +1569,7 @@
         <v>9</v>
       </c>
       <c r="N18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O18">
         <v>9</v>
@@ -1666,7 +1666,7 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>8</v>
@@ -1684,7 +1684,7 @@
         <v>8</v>
       </c>
       <c r="K20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L20">
         <v>8</v>
@@ -1693,7 +1693,7 @@
         <v>7</v>
       </c>
       <c r="N20">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O20">
         <v>8</v>
@@ -1790,7 +1790,7 @@
         <v>6</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>6</v>
@@ -1808,7 +1808,7 @@
         <v>6</v>
       </c>
       <c r="K22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L22">
         <v>6</v>
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="N22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22">
         <v>7</v>
@@ -1914,7 +1914,7 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -1932,7 +1932,7 @@
         <v>8</v>
       </c>
       <c r="K24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L24">
         <v>8</v>
@@ -1941,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="N24">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24">
         <v>7</v>
@@ -2224,7 +2224,7 @@
         <v>7</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>7</v>
@@ -2242,7 +2242,7 @@
         <v>7</v>
       </c>
       <c r="K29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L29">
         <v>7</v>
@@ -2251,7 +2251,7 @@
         <v>7</v>
       </c>
       <c r="N29">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O29">
         <v>8</v>
@@ -2472,7 +2472,7 @@
         <v>8</v>
       </c>
       <c r="E33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -2490,7 +2490,7 @@
         <v>8</v>
       </c>
       <c r="K33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L33">
         <v>8</v>
@@ -2499,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="N33">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O33">
         <v>8</v>
@@ -2658,7 +2658,7 @@
         <v>7</v>
       </c>
       <c r="E36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -2676,7 +2676,7 @@
         <v>7</v>
       </c>
       <c r="K36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L36">
         <v>7</v>
@@ -2685,7 +2685,7 @@
         <v>6</v>
       </c>
       <c r="N36">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O36">
         <v>8</v>
@@ -2720,7 +2720,7 @@
         <v>6</v>
       </c>
       <c r="E37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>6</v>
@@ -2738,7 +2738,7 @@
         <v>6</v>
       </c>
       <c r="K37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L37">
         <v>6</v>
@@ -2747,7 +2747,7 @@
         <v>7</v>
       </c>
       <c r="N37">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O37">
         <v>8</v>
@@ -2782,7 +2782,7 @@
         <v>8</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F38">
         <v>8</v>
@@ -2800,7 +2800,7 @@
         <v>8</v>
       </c>
       <c r="K38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L38">
         <v>8</v>
@@ -2809,7 +2809,7 @@
         <v>9</v>
       </c>
       <c r="N38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O38">
         <v>8</v>
@@ -2844,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F39">
         <v>10</v>
@@ -2862,7 +2862,7 @@
         <v>10</v>
       </c>
       <c r="K39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L39">
         <v>10</v>
@@ -2871,7 +2871,7 @@
         <v>7</v>
       </c>
       <c r="N39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O39">
         <v>8</v>
@@ -2906,7 +2906,7 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F40">
         <v>9</v>
@@ -2924,7 +2924,7 @@
         <v>9</v>
       </c>
       <c r="K40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L40">
         <v>9</v>
@@ -2933,7 +2933,7 @@
         <v>7</v>
       </c>
       <c r="N40">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O40">
         <v>8</v>
@@ -2968,7 +2968,7 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -2986,7 +2986,7 @@
         <v>5</v>
       </c>
       <c r="K41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L41">
         <v>5</v>
@@ -2995,7 +2995,7 @@
         <v>5</v>
       </c>
       <c r="N41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O41">
         <v>8</v>
@@ -3030,7 +3030,7 @@
         <v>8</v>
       </c>
       <c r="E42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -3048,7 +3048,7 @@
         <v>8</v>
       </c>
       <c r="K42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L42">
         <v>8</v>
@@ -3057,7 +3057,7 @@
         <v>8</v>
       </c>
       <c r="N42">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O42">
         <v>8</v>
@@ -3092,7 +3092,7 @@
         <v>9</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <v>9</v>
@@ -3110,7 +3110,7 @@
         <v>9</v>
       </c>
       <c r="K43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L43">
         <v>9</v>
@@ -3119,7 +3119,7 @@
         <v>6</v>
       </c>
       <c r="N43">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O43">
         <v>6</v>
@@ -3154,7 +3154,7 @@
         <v>7</v>
       </c>
       <c r="E44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <v>7</v>
@@ -3172,7 +3172,7 @@
         <v>7</v>
       </c>
       <c r="K44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L44">
         <v>7</v>
@@ -3181,7 +3181,7 @@
         <v>6</v>
       </c>
       <c r="N44">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O44">
         <v>6</v>
@@ -3216,7 +3216,7 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45">
         <v>5</v>
@@ -3234,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L45">
         <v>5</v>
@@ -3243,7 +3243,7 @@
         <v>7</v>
       </c>
       <c r="N45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O45">
         <v>7</v>
@@ -3464,7 +3464,7 @@
         <v>7</v>
       </c>
       <c r="E49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F49">
         <v>7</v>
@@ -3482,7 +3482,7 @@
         <v>7</v>
       </c>
       <c r="K49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L49">
         <v>7</v>
@@ -3491,7 +3491,7 @@
         <v>6</v>
       </c>
       <c r="N49">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O49">
         <v>6</v>
@@ -3526,7 +3526,7 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50">
         <v>8</v>
@@ -3544,7 +3544,7 @@
         <v>8</v>
       </c>
       <c r="K50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L50">
         <v>8</v>
@@ -3553,7 +3553,7 @@
         <v>7</v>
       </c>
       <c r="N50">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O50">
         <v>8</v>
@@ -3650,7 +3650,7 @@
         <v>8</v>
       </c>
       <c r="E52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F52">
         <v>8</v>
@@ -3668,7 +3668,7 @@
         <v>8</v>
       </c>
       <c r="K52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L52">
         <v>8</v>
@@ -3677,7 +3677,7 @@
         <v>5</v>
       </c>
       <c r="N52">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O52">
         <v>7</v>
@@ -3712,7 +3712,7 @@
         <v>9</v>
       </c>
       <c r="E53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -3730,7 +3730,7 @@
         <v>9</v>
       </c>
       <c r="K53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L53">
         <v>9</v>
@@ -3739,7 +3739,7 @@
         <v>7</v>
       </c>
       <c r="N53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O53">
         <v>8</v>
@@ -3836,7 +3836,7 @@
         <v>7</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F55">
         <v>7</v>
@@ -3854,7 +3854,7 @@
         <v>7</v>
       </c>
       <c r="K55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L55">
         <v>7</v>
@@ -3863,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="N55">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O55">
         <v>7</v>
@@ -3960,7 +3960,7 @@
         <v>8</v>
       </c>
       <c r="E57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57">
         <v>8</v>
@@ -3978,7 +3978,7 @@
         <v>8</v>
       </c>
       <c r="K57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L57">
         <v>8</v>
@@ -3987,7 +3987,7 @@
         <v>8</v>
       </c>
       <c r="N57">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O57">
         <v>9</v>
@@ -4022,7 +4022,7 @@
         <v>10</v>
       </c>
       <c r="E58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F58">
         <v>10</v>
@@ -4040,7 +4040,7 @@
         <v>10</v>
       </c>
       <c r="K58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L58">
         <v>10</v>
@@ -4049,7 +4049,7 @@
         <v>9</v>
       </c>
       <c r="N58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O58">
         <v>8</v>
@@ -4084,7 +4084,7 @@
         <v>9</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F59">
         <v>9</v>
@@ -4102,7 +4102,7 @@
         <v>9</v>
       </c>
       <c r="K59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L59">
         <v>9</v>
@@ -4111,7 +4111,7 @@
         <v>7</v>
       </c>
       <c r="N59">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O59">
         <v>7</v>
@@ -4208,7 +4208,7 @@
         <v>8</v>
       </c>
       <c r="E61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F61">
         <v>8</v>
@@ -4226,7 +4226,7 @@
         <v>8</v>
       </c>
       <c r="K61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L61">
         <v>8</v>
@@ -4235,7 +4235,7 @@
         <v>6</v>
       </c>
       <c r="N61">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O61">
         <v>6</v>
@@ -4270,7 +4270,7 @@
         <v>9</v>
       </c>
       <c r="E62">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F62">
         <v>9</v>
@@ -4288,7 +4288,7 @@
         <v>9</v>
       </c>
       <c r="K62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L62">
         <v>9</v>
@@ -4332,7 +4332,7 @@
         <v>7</v>
       </c>
       <c r="E63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F63">
         <v>7</v>
@@ -4350,7 +4350,7 @@
         <v>7</v>
       </c>
       <c r="K63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L63">
         <v>7</v>
@@ -4359,7 +4359,7 @@
         <v>8</v>
       </c>
       <c r="N63">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O63">
         <v>8</v>
@@ -4394,7 +4394,7 @@
         <v>5</v>
       </c>
       <c r="E64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F64">
         <v>5</v>
@@ -4412,7 +4412,7 @@
         <v>5</v>
       </c>
       <c r="K64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L64">
         <v>5</v>
@@ -4421,7 +4421,7 @@
         <v>7</v>
       </c>
       <c r="N64">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O64">
         <v>6</v>
@@ -4518,7 +4518,7 @@
         <v>9</v>
       </c>
       <c r="E66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66">
         <v>9</v>
@@ -4536,7 +4536,7 @@
         <v>9</v>
       </c>
       <c r="K66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L66">
         <v>9</v>
@@ -4545,7 +4545,7 @@
         <v>7</v>
       </c>
       <c r="N66">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O66">
         <v>7</v>
@@ -4580,7 +4580,7 @@
         <v>4</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F67">
         <v>4</v>
@@ -4598,7 +4598,7 @@
         <v>4</v>
       </c>
       <c r="K67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L67">
         <v>4</v>
@@ -4607,7 +4607,7 @@
         <v>7</v>
       </c>
       <c r="N67">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O67">
         <v>7</v>
@@ -4828,7 +4828,7 @@
         <v>10</v>
       </c>
       <c r="E71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71">
         <v>10</v>
@@ -4846,7 +4846,7 @@
         <v>10</v>
       </c>
       <c r="K71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L71">
         <v>10</v>
@@ -4855,7 +4855,7 @@
         <v>7</v>
       </c>
       <c r="N71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O71">
         <v>7</v>
@@ -4890,7 +4890,7 @@
         <v>7</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F72">
         <v>7</v>
@@ -4908,7 +4908,7 @@
         <v>7</v>
       </c>
       <c r="K72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L72">
         <v>7</v>
@@ -4917,7 +4917,7 @@
         <v>5</v>
       </c>
       <c r="N72">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O72">
         <v>6</v>
@@ -4952,7 +4952,7 @@
         <v>6</v>
       </c>
       <c r="E73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F73">
         <v>6</v>
@@ -4970,7 +4970,7 @@
         <v>6</v>
       </c>
       <c r="K73">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L73">
         <v>6</v>
@@ -4979,7 +4979,7 @@
         <v>4</v>
       </c>
       <c r="N73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="O73">
         <v>7</v>
@@ -5014,7 +5014,7 @@
         <v>8</v>
       </c>
       <c r="E74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F74">
         <v>8</v>
@@ -5032,7 +5032,7 @@
         <v>8</v>
       </c>
       <c r="K74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L74">
         <v>8</v>
@@ -5041,7 +5041,7 @@
         <v>5</v>
       </c>
       <c r="N74">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O74">
         <v>7</v>
@@ -5076,7 +5076,7 @@
         <v>10</v>
       </c>
       <c r="E75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F75">
         <v>10</v>
@@ -5094,7 +5094,7 @@
         <v>10</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L75">
         <v>10</v>
@@ -5103,7 +5103,7 @@
         <v>6</v>
       </c>
       <c r="N75">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O75">
         <v>7</v>
@@ -5138,7 +5138,7 @@
         <v>9</v>
       </c>
       <c r="E76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F76">
         <v>9</v>
@@ -5156,7 +5156,7 @@
         <v>9</v>
       </c>
       <c r="K76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L76">
         <v>9</v>
@@ -5165,7 +5165,7 @@
         <v>7</v>
       </c>
       <c r="N76">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O76">
         <v>6</v>
@@ -5200,7 +5200,7 @@
         <v>5</v>
       </c>
       <c r="E77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F77">
         <v>5</v>
@@ -5218,7 +5218,7 @@
         <v>5</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L77">
         <v>8</v>
@@ -5227,7 +5227,7 @@
         <v>7</v>
       </c>
       <c r="N77">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O77">
         <v>6</v>
@@ -5324,7 +5324,7 @@
         <v>9</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F79">
         <v>9</v>
@@ -5342,7 +5342,7 @@
         <v>9</v>
       </c>
       <c r="K79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L79">
         <v>9</v>
@@ -5351,7 +5351,7 @@
         <v>7</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O79">
         <v>7</v>
@@ -5448,7 +5448,7 @@
         <v>5</v>
       </c>
       <c r="E81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F81">
         <v>5</v>
@@ -5466,7 +5466,7 @@
         <v>5</v>
       </c>
       <c r="K81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L81">
         <v>5</v>
@@ -5475,7 +5475,7 @@
         <v>5</v>
       </c>
       <c r="N81">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O81">
         <v>5</v>
@@ -5510,7 +5510,7 @@
         <v>6</v>
       </c>
       <c r="E82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F82">
         <v>7</v>
@@ -5528,7 +5528,7 @@
         <v>6</v>
       </c>
       <c r="K82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L82">
         <v>6</v>
@@ -5537,7 +5537,7 @@
         <v>10</v>
       </c>
       <c r="N82">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O82">
         <v>9</v>
@@ -5572,7 +5572,7 @@
         <v>9</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F83">
         <v>9</v>
@@ -5590,7 +5590,7 @@
         <v>9</v>
       </c>
       <c r="K83">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L83">
         <v>9</v>
@@ -5599,7 +5599,7 @@
         <v>8</v>
       </c>
       <c r="N83">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O83">
         <v>8</v>
@@ -5634,7 +5634,7 @@
         <v>4</v>
       </c>
       <c r="E84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F84">
         <v>4</v>
@@ -5652,7 +5652,7 @@
         <v>4</v>
       </c>
       <c r="K84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L84">
         <v>4</v>
@@ -5661,7 +5661,7 @@
         <v>7</v>
       </c>
       <c r="N84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O84">
         <v>7</v>
@@ -5696,7 +5696,7 @@
         <v>5</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F85">
         <v>5</v>
@@ -5714,7 +5714,7 @@
         <v>5</v>
       </c>
       <c r="K85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L85">
         <v>5</v>
@@ -5723,7 +5723,7 @@
         <v>7</v>
       </c>
       <c r="N85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O85">
         <v>7</v>
@@ -5758,7 +5758,7 @@
         <v>8</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F86">
         <v>8</v>
@@ -5776,7 +5776,7 @@
         <v>8</v>
       </c>
       <c r="K86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L86">
         <v>8</v>
@@ -5785,7 +5785,7 @@
         <v>6</v>
       </c>
       <c r="N86">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O86">
         <v>8</v>
@@ -5820,7 +5820,7 @@
         <v>9</v>
       </c>
       <c r="E87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F87">
         <v>9</v>
@@ -5838,7 +5838,7 @@
         <v>5</v>
       </c>
       <c r="K87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L87">
         <v>9</v>
@@ -5847,7 +5847,7 @@
         <v>6</v>
       </c>
       <c r="N87">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O87">
         <v>7</v>
@@ -5882,7 +5882,7 @@
         <v>10</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F88">
         <v>10</v>
@@ -5900,7 +5900,7 @@
         <v>10</v>
       </c>
       <c r="K88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L88">
         <v>10</v>
@@ -5909,7 +5909,7 @@
         <v>7</v>
       </c>
       <c r="N88">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O88">
         <v>7</v>
@@ -5944,7 +5944,7 @@
         <v>7</v>
       </c>
       <c r="E89">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F89">
         <v>7</v>
@@ -5962,7 +5962,7 @@
         <v>7</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L89">
         <v>7</v>
@@ -5971,7 +5971,7 @@
         <v>6</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O89">
         <v>7</v>
@@ -6006,7 +6006,7 @@
         <v>6</v>
       </c>
       <c r="E90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F90">
         <v>6</v>
@@ -6024,7 +6024,7 @@
         <v>6</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L90">
         <v>6</v>
@@ -6033,7 +6033,7 @@
         <v>7</v>
       </c>
       <c r="N90">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O90">
         <v>8</v>
@@ -6068,7 +6068,7 @@
         <v>8</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F91">
         <v>8</v>
@@ -6086,7 +6086,7 @@
         <v>8</v>
       </c>
       <c r="K91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L91">
         <v>8</v>
@@ -6095,7 +6095,7 @@
         <v>7</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O91">
         <v>7</v>
@@ -6130,7 +6130,7 @@
         <v>10</v>
       </c>
       <c r="E92">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F92">
         <v>10</v>
@@ -6254,7 +6254,7 @@
         <v>5</v>
       </c>
       <c r="E94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <v>5</v>
@@ -6272,7 +6272,7 @@
         <v>5</v>
       </c>
       <c r="K94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L94">
         <v>5</v>
@@ -6281,7 +6281,7 @@
         <v>5</v>
       </c>
       <c r="N94">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O94">
         <v>7</v>
@@ -6316,7 +6316,7 @@
         <v>8</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F95">
         <v>8</v>
@@ -6334,7 +6334,7 @@
         <v>8</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L95">
         <v>8</v>
@@ -6343,7 +6343,7 @@
         <v>6</v>
       </c>
       <c r="N95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O95">
         <v>7</v>
@@ -6502,7 +6502,7 @@
         <v>5</v>
       </c>
       <c r="E98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F98">
         <v>5</v>
@@ -6520,7 +6520,7 @@
         <v>5</v>
       </c>
       <c r="K98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L98">
         <v>5</v>
@@ -6529,7 +6529,7 @@
         <v>7</v>
       </c>
       <c r="N98">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O98">
         <v>8</v>
@@ -6564,7 +6564,7 @@
         <v>6</v>
       </c>
       <c r="E99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F99">
         <v>6</v>
@@ -6582,7 +6582,7 @@
         <v>6</v>
       </c>
       <c r="K99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L99">
         <v>6</v>
@@ -6591,7 +6591,7 @@
         <v>7</v>
       </c>
       <c r="N99">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O99">
         <v>5</v>
@@ -6626,7 +6626,7 @@
         <v>9</v>
       </c>
       <c r="E100">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F100">
         <v>9</v>
@@ -6688,7 +6688,7 @@
         <v>4</v>
       </c>
       <c r="E101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F101">
         <v>4</v>
@@ -6706,7 +6706,7 @@
         <v>4</v>
       </c>
       <c r="K101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L101">
         <v>4</v>
@@ -6715,7 +6715,7 @@
         <v>7</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O101">
         <v>7</v>
@@ -6750,7 +6750,7 @@
         <v>7</v>
       </c>
       <c r="E102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F102">
         <v>7</v>
@@ -6768,7 +6768,7 @@
         <v>7</v>
       </c>
       <c r="K102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L102">
         <v>7</v>
@@ -6777,7 +6777,7 @@
         <v>8</v>
       </c>
       <c r="N102">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O102">
         <v>8</v>
@@ -6812,7 +6812,7 @@
         <v>8</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F103">
         <v>8</v>
@@ -6830,7 +6830,7 @@
         <v>8</v>
       </c>
       <c r="K103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L103">
         <v>8</v>
@@ -6839,7 +6839,7 @@
         <v>4</v>
       </c>
       <c r="N103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O103">
         <v>4</v>
@@ -6892,7 +6892,7 @@
         <v>5</v>
       </c>
       <c r="K104">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="L104">
         <v>5</v>
@@ -6998,7 +6998,7 @@
         <v>4</v>
       </c>
       <c r="E106">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F106">
         <v>8</v>
@@ -7016,7 +7016,7 @@
         <v>4</v>
       </c>
       <c r="K106">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L106">
         <v>4</v>
@@ -7025,7 +7025,7 @@
         <v>7</v>
       </c>
       <c r="N106">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O106">
         <v>8</v>
@@ -7060,7 +7060,7 @@
         <v>8</v>
       </c>
       <c r="E107">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F107">
         <v>8</v>
@@ -7078,7 +7078,7 @@
         <v>8</v>
       </c>
       <c r="K107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L107">
         <v>7</v>
@@ -7087,7 +7087,7 @@
         <v>9</v>
       </c>
       <c r="N107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O107">
         <v>10</v>
@@ -7246,7 +7246,7 @@
         <v>4</v>
       </c>
       <c r="E110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F110">
         <v>4</v>
@@ -7264,7 +7264,7 @@
         <v>4</v>
       </c>
       <c r="K110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L110">
         <v>4</v>
@@ -7273,7 +7273,7 @@
         <v>6</v>
       </c>
       <c r="N110">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O110">
         <v>8</v>
@@ -7308,7 +7308,7 @@
         <v>8</v>
       </c>
       <c r="E111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F111">
         <v>8</v>
@@ -7326,7 +7326,7 @@
         <v>8</v>
       </c>
       <c r="K111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L111">
         <v>8</v>
@@ -7335,7 +7335,7 @@
         <v>5</v>
       </c>
       <c r="N111">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O111">
         <v>7</v>
@@ -7432,7 +7432,7 @@
         <v>5</v>
       </c>
       <c r="E113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F113">
         <v>5</v>
@@ -7450,7 +7450,7 @@
         <v>5</v>
       </c>
       <c r="K113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L113">
         <v>5</v>
@@ -7459,7 +7459,7 @@
         <v>8</v>
       </c>
       <c r="N113">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O113">
         <v>7</v>

--- a/Test with manipulated Dataset/ManipulatedDataset.xlsx
+++ b/Test with manipulated Dataset/ManipulatedDataset.xlsx
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,34 +450,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="25.44140625" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="32.6640625" customWidth="1"/>
-    <col min="9" max="9" width="37.6640625" customWidth="1"/>
-    <col min="10" max="10" width="28.77734375" customWidth="1"/>
-    <col min="11" max="11" width="28.88671875" customWidth="1"/>
-    <col min="12" max="12" width="32.44140625" customWidth="1"/>
-    <col min="13" max="13" width="33" customWidth="1"/>
-    <col min="14" max="14" width="30.88671875" customWidth="1"/>
-    <col min="15" max="15" width="28.109375" customWidth="1"/>
-    <col min="16" max="16" width="19.44140625" customWidth="1"/>
-    <col min="17" max="17" width="20.21875" customWidth="1"/>
-    <col min="18" max="18" width="57.21875" customWidth="1"/>
-    <col min="19" max="19" width="32.6640625" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="14" width="12" customWidth="1"/>
+    <col min="15" max="15" width="12.21875" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="13.88671875" customWidth="1"/>
+    <col min="19" max="19" width="15.33203125" customWidth="1"/>
+    <col min="20" max="20" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="37.799999999999997" customHeight="1">
+    <row r="1" spans="1:20" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +535,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -598,7 +597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -660,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -722,7 +721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -784,7 +783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -846,7 +845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -908,7 +907,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -970,7 +969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1156,7 +1155,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1280,7 +1279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1466,7 +1465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1528,7 +1527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1590,7 +1589,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1652,7 +1651,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1776,7 +1775,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1838,7 +1837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1900,7 +1899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1962,7 +1961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2024,7 +2023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2086,7 +2085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2210,7 +2209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2272,7 +2271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2334,7 +2333,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2458,7 +2457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2520,7 +2519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2644,7 +2643,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2706,7 +2705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2892,7 +2891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2954,7 +2953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3078,7 +3077,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3140,7 +3139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3202,7 +3201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3264,7 +3263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3326,7 +3325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3388,7 +3387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3574,7 +3573,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3636,7 +3635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3698,7 +3697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3760,7 +3759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3884,7 +3883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3946,7 +3945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -4070,7 +4069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -4132,7 +4131,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -4566,7 +4565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -4628,7 +4627,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -4690,7 +4689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -4752,7 +4751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -4814,7 +4813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4876,7 +4875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4938,7 +4937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5000,7 +4999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5124,7 +5123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -5186,7 +5185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5248,7 +5247,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -5558,7 +5557,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5682,7 +5681,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5744,7 +5743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5806,7 +5805,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5868,7 +5867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5992,7 +5991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6054,7 +6053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6116,7 +6115,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6178,7 +6177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6240,7 +6239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -6426,7 +6425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -6488,7 +6487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -6550,7 +6549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -6612,7 +6611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -6674,7 +6673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -6736,7 +6735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -6922,7 +6921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -6984,7 +6983,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7046,7 +7045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7170,7 +7169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7232,7 +7231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7294,7 +7293,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7356,7 +7355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7418,7 +7417,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:20">
+    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7491,7 +7490,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7503,7 +7502,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
